--- a/examples/it/MEZZI PREACCREDITATI_Dati esempio - Mezzi preaccreditati.xlsx
+++ b/examples/it/MEZZI PREACCREDITATI_Dati esempio - Mezzi preaccreditati.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="382">
   <si>
     <t>CODICE INVENTARIO</t>
   </si>
@@ -54,43 +54,1000 @@
     <t>NOTE</t>
   </si>
   <si>
-    <t>KR875CN</t>
+    <t>BG-ORG-1595</t>
+  </si>
+  <si>
+    <t>SM189WP</t>
+  </si>
+  <si>
+    <t>Mezzi speciali</t>
+  </si>
+  <si>
+    <t>Sollevatore idraulico</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>Crafter</t>
+  </si>
+  <si>
+    <t>ORGANIZZAZIONE "CODONE"</t>
+  </si>
+  <si>
+    <t>ORG0031</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>OPERATORE LOGISTICO</t>
+  </si>
+  <si>
+    <t>TURNO 1</t>
+  </si>
+  <si>
+    <t>SOLLEVATORE IDRAULICO 2 ASSI RIBALTABILE</t>
+  </si>
+  <si>
+    <t>BG-ORG-2506</t>
+  </si>
+  <si>
+    <t>NR774LR</t>
+  </si>
+  <si>
+    <t>Motoslitta</t>
+  </si>
+  <si>
+    <t>Volkswagen</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>ORGANIZZAZIONE "CINCIA BIGIA ALPESTRE"</t>
+  </si>
+  <si>
+    <t>ORG0029</t>
+  </si>
+  <si>
+    <t>TURNO 4</t>
+  </si>
+  <si>
+    <t>MOTOSLITTA 3 ASSI CON VERRICELLO</t>
+  </si>
+  <si>
+    <t>BG-ORG-4854</t>
+  </si>
+  <si>
+    <t>QR805OZ</t>
   </si>
   <si>
     <t>Veicoli</t>
   </si>
   <si>
+    <t>Camper</t>
+  </si>
+  <si>
+    <t>Fiat</t>
+  </si>
+  <si>
+    <t>Hilux</t>
+  </si>
+  <si>
+    <t>TURNO 2</t>
+  </si>
+  <si>
+    <t>CAMPER 4 POSTI SOCCORSO</t>
+  </si>
+  <si>
+    <t>BG-ORG-6777</t>
+  </si>
+  <si>
+    <t>YO670JP</t>
+  </si>
+  <si>
+    <t>Rimorchi</t>
+  </si>
+  <si>
+    <t>Carrello</t>
+  </si>
+  <si>
+    <t>Renault</t>
+  </si>
+  <si>
+    <t>Sprinter</t>
+  </si>
+  <si>
+    <t>ORGANIZZAZIONE "CIVETTA"</t>
+  </si>
+  <si>
+    <t>ORG0030</t>
+  </si>
+  <si>
+    <t>CARRELLO 4X4 MODULO ANTINCENDIO</t>
+  </si>
+  <si>
+    <t>BG-ORG-7174</t>
+  </si>
+  <si>
+    <t>MT667TE</t>
+  </si>
+  <si>
+    <t>Mezzi aerei</t>
+  </si>
+  <si>
+    <t>Aeroplano</t>
+  </si>
+  <si>
+    <t>Scania</t>
+  </si>
+  <si>
+    <t>R-Series</t>
+  </si>
+  <si>
+    <t>AEROPLANO 18Q ALLESTITO</t>
+  </si>
+  <si>
+    <t>BG-ORG-9213</t>
+  </si>
+  <si>
+    <t>CM394OM</t>
+  </si>
+  <si>
+    <t>Autogru</t>
+  </si>
+  <si>
+    <t>TGE</t>
+  </si>
+  <si>
+    <t>TURNO 3</t>
+  </si>
+  <si>
+    <t>AUTOGRU 18Q RIBALTABILE</t>
+  </si>
+  <si>
+    <t>BG01</t>
+  </si>
+  <si>
+    <t>RO422QK</t>
+  </si>
+  <si>
     <t>Autovettura</t>
   </si>
   <si>
+    <t>HYUNDAI</t>
+  </si>
+  <si>
+    <t>I30</t>
+  </si>
+  <si>
+    <t>ORGANIZZAZIONE "CARDELLINO"</t>
+  </si>
+  <si>
+    <t>ORG0027</t>
+  </si>
+  <si>
+    <t>BG14</t>
+  </si>
+  <si>
+    <t>OD802TI</t>
+  </si>
+  <si>
+    <t>BS-GRU-8450</t>
+  </si>
+  <si>
+    <t>HR690OD</t>
+  </si>
+  <si>
+    <t>Escavatore</t>
+  </si>
+  <si>
+    <t>Iveco</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>GRUPPO ALBANELLA MINORE</t>
+  </si>
+  <si>
+    <t>ORG0017</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>ESCAVATORE 2 ASSI MODULO ANTINCENDIO</t>
+  </si>
+  <si>
+    <t>BS-ORG-1516</t>
+  </si>
+  <si>
+    <t>XN167PN</t>
+  </si>
+  <si>
+    <t>Spargi sabbia e sale</t>
+  </si>
+  <si>
+    <t>ORGANIZZAZIONE "AIRONE BIANCO MAGGIORE"</t>
+  </si>
+  <si>
+    <t>ORG0020</t>
+  </si>
+  <si>
+    <t>SPARGI SABBIA E SALE 9 POSTI SOCCORSO</t>
+  </si>
+  <si>
+    <t>BS-ORG-4137</t>
+  </si>
+  <si>
+    <t>PG605RI</t>
+  </si>
+  <si>
+    <t>Navara</t>
+  </si>
+  <si>
+    <t>ORGANIZZAZIONE "AQUILA REALE"</t>
+  </si>
+  <si>
+    <t>ORG0022</t>
+  </si>
+  <si>
+    <t>CARRELLO 18Q ALLESTITO</t>
+  </si>
+  <si>
+    <t>BS-ORG-6515</t>
+  </si>
+  <si>
+    <t>QZ224IE</t>
+  </si>
+  <si>
+    <t>ORGANIZZAZIONE "ALBASTRELLO"</t>
+  </si>
+  <si>
+    <t>ORG0021</t>
+  </si>
+  <si>
+    <t>AEROPLANO 4X4 SOCCORSO</t>
+  </si>
+  <si>
+    <t>BS-ORG-8944</t>
+  </si>
+  <si>
+    <t>DO721PM</t>
+  </si>
+  <si>
+    <t>Imbarcazioni</t>
+  </si>
+  <si>
+    <t>Hovercraft</t>
+  </si>
+  <si>
+    <t>Nissan</t>
+  </si>
+  <si>
+    <t>ORGANIZZAZIONE "BASETTINO"</t>
+  </si>
+  <si>
+    <t>ORG0024</t>
+  </si>
+  <si>
+    <t>HOVERCRAFT 18Q CON VERRICELLO</t>
+  </si>
+  <si>
+    <t>BS08</t>
+  </si>
+  <si>
+    <t>VA818TL</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>HILUX</t>
+  </si>
+  <si>
+    <t>GRUPPO ANATRA MANDARINA</t>
+  </si>
+  <si>
+    <t>ORG0018</t>
+  </si>
+  <si>
+    <t>CO-ORG-2260</t>
+  </si>
+  <si>
+    <t>RM264CX</t>
+  </si>
+  <si>
+    <t>Idrovolante</t>
+  </si>
+  <si>
+    <t>Ducato</t>
+  </si>
+  <si>
+    <t>ORGANIZZAZIONE "MORETTA TABACCATA"</t>
+  </si>
+  <si>
+    <t>ORG0046</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>IDROVOLANTE 6X4 RIBALTABILE</t>
+  </si>
+  <si>
+    <t>CR-ORG-4949</t>
+  </si>
+  <si>
+    <t>VV825TY</t>
+  </si>
+  <si>
+    <t>ORGANIZZAZIONE "QUAGLIA"</t>
+  </si>
+  <si>
+    <t>ORG0056</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>SPARGI SABBIA E SALE 12Q RIBALTABILE</t>
+  </si>
+  <si>
+    <t>CR-ORG-5758</t>
+  </si>
+  <si>
+    <t>UR629MU</t>
+  </si>
+  <si>
+    <t>Autobus</t>
+  </si>
+  <si>
+    <t>ORGANIZZAZIONE "PIVIERE DORATO"</t>
+  </si>
+  <si>
+    <t>ORG0055</t>
+  </si>
+  <si>
+    <t>AUTOBUS 4X4 SOCCORSO</t>
+  </si>
+  <si>
+    <t>CR-ORG-6966</t>
+  </si>
+  <si>
+    <t>OU956WZ</t>
+  </si>
+  <si>
+    <t>Mercedes</t>
+  </si>
+  <si>
+    <t>ORGANIZZAZIONE "SALTIMPALO"</t>
+  </si>
+  <si>
+    <t>ORG0058</t>
+  </si>
+  <si>
+    <t>IDROVOLANTE 4 POSTI SOCCORSO</t>
+  </si>
+  <si>
+    <t>CR-ORG-8190</t>
+  </si>
+  <si>
+    <t>AH766HZ</t>
+  </si>
+  <si>
+    <t>Volvo</t>
+  </si>
+  <si>
+    <t>FH</t>
+  </si>
+  <si>
+    <t>IDROVOLANTE 4X4 CON LAMA</t>
+  </si>
+  <si>
+    <t>CR-ORG-9164</t>
+  </si>
+  <si>
+    <t>EP509LC</t>
+  </si>
+  <si>
+    <t>Moto d'acqua</t>
+  </si>
+  <si>
+    <t>MOTO D'ACQUA 6X4 ALLESTITO</t>
+  </si>
+  <si>
+    <t>CR-ORG-9611</t>
+  </si>
+  <si>
+    <t>ZL886JR</t>
+  </si>
+  <si>
+    <t>Motrice</t>
+  </si>
+  <si>
+    <t>ORGANIZZAZIONE "PIRO PIRO CULBIANCO"</t>
+  </si>
+  <si>
+    <t>ORG0054</t>
+  </si>
+  <si>
+    <t>MOTRICE 18Q ALLESTITO</t>
+  </si>
+  <si>
+    <t>CR05</t>
+  </si>
+  <si>
+    <t>TJ552PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CITROEN </t>
+  </si>
+  <si>
+    <t>C4 GRAN PICASSO</t>
+  </si>
+  <si>
+    <t>LC-ORG-8879</t>
+  </si>
+  <si>
+    <t>XZ592KS</t>
+  </si>
+  <si>
+    <t>ORGANIZZAZIONE "SORDONE"</t>
+  </si>
+  <si>
+    <t>ORG0059</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>IDROVOLANTE 12Q MODULO ANTINCENDIO</t>
+  </si>
+  <si>
+    <t>MB-ORG-2823</t>
+  </si>
+  <si>
+    <t>RQ728FO</t>
+  </si>
+  <si>
+    <t>Gommone</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>ORGANIZZAZIONE "GRUCCIONE"</t>
+  </si>
+  <si>
+    <t>ORG0041</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>GOMMONE 18Q RIBALTABILE</t>
+  </si>
+  <si>
+    <t>MB-ORG-3500</t>
+  </si>
+  <si>
+    <t>SX920NB</t>
+  </si>
+  <si>
+    <t>ORGANIZZAZIONE "GABBIANO REALE NORDICO"</t>
+  </si>
+  <si>
+    <t>ORG0038</t>
+  </si>
+  <si>
+    <t>GOMMONE 18Q ALLESTITO</t>
+  </si>
+  <si>
+    <t>MB-ORG-3514</t>
+  </si>
+  <si>
+    <t>ZV842OM</t>
+  </si>
+  <si>
+    <t>ULM (ultraleggero motorizzato)</t>
+  </si>
+  <si>
+    <t>ULM (ULTRALEGGERO MOTORIZZATO) 3 ASSI MODULO ANTINCENDIO</t>
+  </si>
+  <si>
+    <t>MB-ORG-4777</t>
+  </si>
+  <si>
+    <t>QV106UD</t>
+  </si>
+  <si>
+    <t>Bobcat</t>
+  </si>
+  <si>
+    <t>ORGANIZZAZIONE "FOLAGA"</t>
+  </si>
+  <si>
+    <t>ORG0036</t>
+  </si>
+  <si>
+    <t>BOBCAT 3 ASSI CON VERRICELLO</t>
+  </si>
+  <si>
+    <t>MB-ORG-6613</t>
+  </si>
+  <si>
+    <t>FK512QH</t>
+  </si>
+  <si>
+    <t>ORGANIZZAZIONE "GAVINA"</t>
+  </si>
+  <si>
+    <t>ORG0039</t>
+  </si>
+  <si>
+    <t>HOVERCRAFT 9 POSTI CON VERRICELLO</t>
+  </si>
+  <si>
+    <t>MB-ORG-7868</t>
+  </si>
+  <si>
+    <t>WO205UP</t>
+  </si>
+  <si>
+    <t>ORGANIZZAZIONE "FRINGUELLO"</t>
+  </si>
+  <si>
+    <t>ORG0037</t>
+  </si>
+  <si>
+    <t>HOVERCRAFT 4 POSTI RIBALTABILE</t>
+  </si>
+  <si>
+    <t>MB08</t>
+  </si>
+  <si>
+    <t>FJ277FH</t>
+  </si>
+  <si>
+    <t>FIAT</t>
+  </si>
+  <si>
+    <t>PANDA CROSS</t>
+  </si>
+  <si>
+    <t>MB15</t>
+  </si>
+  <si>
+    <t>EU834MN</t>
+  </si>
+  <si>
+    <t>ORGANIZZAZIONE "GHIANDAIA MARINA"</t>
+  </si>
+  <si>
+    <t>ORG0040</t>
+  </si>
+  <si>
+    <t>MI-A.V-1929</t>
+  </si>
+  <si>
+    <t>JT381KE</t>
+  </si>
+  <si>
+    <t>Barca</t>
+  </si>
+  <si>
+    <t>A.V. TARABUSINO</t>
+  </si>
+  <si>
+    <t>ORG0004</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>BARCA 9 POSTI RIBALTABILE</t>
+  </si>
+  <si>
+    <t>MI-A.V-3140</t>
+  </si>
+  <si>
+    <t>BL790BK</t>
+  </si>
+  <si>
+    <t>Carrello Appendice</t>
+  </si>
+  <si>
+    <t>A.V. VOLTAPIETRE</t>
+  </si>
+  <si>
+    <t>ORG0007</t>
+  </si>
+  <si>
+    <t>CARRELLO APPENDICE 3 ASSI MODULO ANTINCENDIO</t>
+  </si>
+  <si>
+    <t>MI-A.V-3800</t>
+  </si>
+  <si>
+    <t>UQ390SK</t>
+  </si>
+  <si>
+    <t>A.V. ZIGOLO MUCIATTO</t>
+  </si>
+  <si>
+    <t>ORG0008</t>
+  </si>
+  <si>
+    <t>BARCA 4X4 CON LAMA</t>
+  </si>
+  <si>
+    <t>MI-A.V-3977</t>
+  </si>
+  <si>
+    <t>JH317BD</t>
+  </si>
+  <si>
+    <t>A.V. STIACCINO</t>
+  </si>
+  <si>
+    <t>ORG0002</t>
+  </si>
+  <si>
+    <t>MOTOSLITTA 18Q RIBALTABILE</t>
+  </si>
+  <si>
+    <t>MI-A.V-4572</t>
+  </si>
+  <si>
+    <t>HX262RB</t>
+  </si>
+  <si>
+    <t>Roulotte</t>
+  </si>
+  <si>
+    <t>ROULOTTE 2 ASSI SOCCORSO</t>
+  </si>
+  <si>
+    <t>MI-A.V-5930</t>
+  </si>
+  <si>
+    <t>CL227FU</t>
+  </si>
+  <si>
+    <t>Semirimorchio</t>
+  </si>
+  <si>
+    <t>SEMIRIMORCHIO 9 POSTI CON LAMA</t>
+  </si>
+  <si>
+    <t>MI-A.V-6692</t>
+  </si>
+  <si>
+    <t>MR546AH</t>
+  </si>
+  <si>
+    <t>Rimorchio</t>
+  </si>
+  <si>
+    <t>A.V. STERNA CODALUNGA</t>
+  </si>
+  <si>
+    <t>ORG0001</t>
+  </si>
+  <si>
+    <t>RIMORCHIO 18Q RIBALTABILE</t>
+  </si>
+  <si>
+    <t>MI-A.V-9596</t>
+  </si>
+  <si>
+    <t>BJ401RS</t>
+  </si>
+  <si>
+    <t>GOMMONE 12Q CON LAMA</t>
+  </si>
+  <si>
+    <t>MI-GRU-4431</t>
+  </si>
+  <si>
+    <t>OS622QR</t>
+  </si>
+  <si>
+    <t>GRUPPO "VENTURONE ALPINO"</t>
+  </si>
+  <si>
+    <t>ORG0014</t>
+  </si>
+  <si>
+    <t>SEMIRIMORCHIO 6X4 MODULO ANTINCENDIO</t>
+  </si>
+  <si>
+    <t>MI-GRU-5719</t>
+  </si>
+  <si>
+    <t>ZR985PU</t>
+  </si>
+  <si>
+    <t>GRUPPO "AVVOLTOIO MONACO"</t>
+  </si>
+  <si>
+    <t>ORG0012</t>
+  </si>
+  <si>
+    <t>MOTRICE 6X4 SOCCORSO</t>
+  </si>
+  <si>
+    <t>MI-GRU-6721</t>
+  </si>
+  <si>
+    <t>RN313YM</t>
+  </si>
+  <si>
+    <t>HOVERCRAFT 6X4 SOCCORSO</t>
+  </si>
+  <si>
+    <t>MI-GRU-7671</t>
+  </si>
+  <si>
+    <t>WD459PO</t>
+  </si>
+  <si>
+    <t>GRUPPO "ALLOCCO DEGLI URALI"</t>
+  </si>
+  <si>
+    <t>ORG0010</t>
+  </si>
+  <si>
+    <t>SOLLEVATORE IDRAULICO 12Q RIBALTABILE</t>
+  </si>
+  <si>
+    <t>MI-GRU-8379</t>
+  </si>
+  <si>
+    <t>XA357IZ</t>
+  </si>
+  <si>
+    <t>ULM (ULTRALEGGERO MOTORIZZATO) 9 POSTI RIBALTABILE</t>
+  </si>
+  <si>
+    <t>MI24</t>
+  </si>
+  <si>
+    <t>LT653RF</t>
+  </si>
+  <si>
+    <t>I10</t>
+  </si>
+  <si>
+    <t>GRUPPO "TORTORA DAL COLLARE ORIENTALE"</t>
+  </si>
+  <si>
+    <t>ORG0013</t>
+  </si>
+  <si>
+    <t>MN-ORG-4810</t>
+  </si>
+  <si>
+    <t>NU107EH</t>
+  </si>
+  <si>
+    <t>Drone</t>
+  </si>
+  <si>
+    <t>ORGANIZZAZIONE "PICCIONE SELVATICO"</t>
+  </si>
+  <si>
+    <t>ORG0053</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>DRONE 4 POSTI SOCCORSO</t>
+  </si>
+  <si>
+    <t>MN-ORG-4859</t>
+  </si>
+  <si>
+    <t>KM687AP</t>
+  </si>
+  <si>
+    <t>Autobotte</t>
+  </si>
+  <si>
+    <t>AUTOBOTTE 3 ASSI RIBALTABILE</t>
+  </si>
+  <si>
+    <t>MN-ORG-6339</t>
+  </si>
+  <si>
+    <t>EZ783IS</t>
+  </si>
+  <si>
+    <t>ORGANIZZAZIONE "PANTANA"</t>
+  </si>
+  <si>
+    <t>ORG0049</t>
+  </si>
+  <si>
+    <t>AUTOVETTURA 2 ASSI RIBALTABILE</t>
+  </si>
+  <si>
+    <t>MN-ORG-9381</t>
+  </si>
+  <si>
+    <t>FX546LK</t>
+  </si>
+  <si>
+    <t>Listo spazzola</t>
+  </si>
+  <si>
+    <t>ORGANIZZAZIONE "PERNICE BIANCA"</t>
+  </si>
+  <si>
+    <t>ORG0051</t>
+  </si>
+  <si>
+    <t>LISTO SPAZZOLA 18Q RIBALTABILE</t>
+  </si>
+  <si>
+    <t>MN09</t>
+  </si>
+  <si>
+    <t>WP289HL</t>
+  </si>
+  <si>
     <t>CITROEN</t>
   </si>
   <si>
     <t>BERLINGO</t>
   </si>
   <si>
-    <t>A.V. STERNA CODALUNGA</t>
-  </si>
-  <si>
-    <t>ORG0001</t>
-  </si>
-  <si>
-    <t>MI</t>
-  </si>
-  <si>
-    <t>OPERATORE LOGISTICO</t>
-  </si>
-  <si>
-    <t>TURNO 1</t>
-  </si>
-  <si>
-    <t>MP226EA</t>
-  </si>
-  <si>
-    <t>C4 GRAN PICASSO</t>
-  </si>
-  <si>
-    <t>TURNO 2</t>
+    <t>ORGANIZZAZIONE "PICCHIO MURAIOLO"</t>
+  </si>
+  <si>
+    <t>ORG0052</t>
+  </si>
+  <si>
+    <t>PV-ORG-9232</t>
+  </si>
+  <si>
+    <t>ZO457YD</t>
+  </si>
+  <si>
+    <t>Furgone</t>
+  </si>
+  <si>
+    <t>ORGANIZZAZIONE "OCA LOMBARDELLA"</t>
+  </si>
+  <si>
+    <t>ORG0048</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>FURGONE 9 POSTI SOCCORSO</t>
+  </si>
+  <si>
+    <t>SO-ORG-1975</t>
+  </si>
+  <si>
+    <t>XW445OJ</t>
+  </si>
+  <si>
+    <t>ORGANIZZAZIONE "SVASSO COLLOROSSO"</t>
+  </si>
+  <si>
+    <t>ORG0062</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>IDROVOLANTE 3 ASSI SOCCORSO</t>
+  </si>
+  <si>
+    <t>VA-ORG-2585</t>
+  </si>
+  <si>
+    <t>FA113TF</t>
+  </si>
+  <si>
+    <t>ORGANIZZAZIONE "CORNACCHIA NERA"</t>
+  </si>
+  <si>
+    <t>ORG0032</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>GOMMONE 2 ASSI CON LAMA</t>
+  </si>
+  <si>
+    <t>VA-ORG-5054</t>
+  </si>
+  <si>
+    <t>AJ629OS</t>
+  </si>
+  <si>
+    <t>ORGANIZZAZIONE "FAGIANO"</t>
+  </si>
+  <si>
+    <t>ORG0034</t>
+  </si>
+  <si>
+    <t>DRONE 9 POSTI RIBALTABILE</t>
+  </si>
+  <si>
+    <t>VA-ORG-5393</t>
+  </si>
+  <si>
+    <t>YU929UG</t>
+  </si>
+  <si>
+    <t>ORGANIZZAZIONE "CROCIERE"</t>
+  </si>
+  <si>
+    <t>ORG0033</t>
+  </si>
+  <si>
+    <t>HOVERCRAFT 3 ASSI CON VERRICELLO</t>
+  </si>
+  <si>
+    <t>VA-ORG-5876</t>
+  </si>
+  <si>
+    <t>IL829EV</t>
+  </si>
+  <si>
+    <t>Battipista</t>
+  </si>
+  <si>
+    <t>BATTIPISTA 3 ASSI MODULO ANTINCENDIO</t>
+  </si>
+  <si>
+    <t>VA-ORG-6515</t>
+  </si>
+  <si>
+    <t>IJ360FI</t>
+  </si>
+  <si>
+    <t>BARCA 18Q CON LAMA</t>
+  </si>
+  <si>
+    <t>VA-ORG-8468</t>
+  </si>
+  <si>
+    <t>TQ826WQ</t>
+  </si>
+  <si>
+    <t>VA-ORG-8696</t>
+  </si>
+  <si>
+    <t>LL186HG</t>
+  </si>
+  <si>
+    <t>MOTOSLITTA 3 ASSI RIBALTABILE</t>
+  </si>
+  <si>
+    <t>VA14</t>
+  </si>
+  <si>
+    <t>IM173VU</t>
+  </si>
+  <si>
+    <t>C4 PICASSO</t>
+  </si>
+  <si>
+    <t>ORGANIZZAZIONE "FALCO PESCATORE"</t>
+  </si>
+  <si>
+    <t>ORG0035</t>
   </si>
   <si>
     <t>Sequenza</t>
@@ -544,7 +1501,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,16 +1511,16 @@
   <cols>
     <col min="1" max="1" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11.711" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="36.42" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="25.851" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="47.131" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="25.851" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="23.423" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="67.127" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -605,67 +1562,3422 @@
       </c>
     </row>
     <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" t="s">
+        <v>111</v>
+      </c>
+      <c r="I22" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24" t="s">
+        <v>118</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>61</v>
+      </c>
+      <c r="L24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" t="s">
+        <v>123</v>
+      </c>
+      <c r="I25" t="s">
+        <v>124</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" t="s">
+        <v>124</v>
+      </c>
+      <c r="J26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" t="s">
+        <v>61</v>
+      </c>
+      <c r="L26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" t="s">
+        <v>130</v>
+      </c>
+      <c r="I27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" t="s">
+        <v>130</v>
+      </c>
+      <c r="I28" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" t="s">
+        <v>124</v>
+      </c>
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" t="s">
+        <v>136</v>
+      </c>
+      <c r="I30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" t="s">
+        <v>136</v>
+      </c>
+      <c r="I31" t="s">
+        <v>124</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" t="s">
+        <v>135</v>
+      </c>
+      <c r="H32" t="s">
+        <v>136</v>
+      </c>
+      <c r="I32" t="s">
+        <v>124</v>
+      </c>
+      <c r="J32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" t="s">
+        <v>61</v>
+      </c>
+      <c r="L32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" t="s">
+        <v>123</v>
+      </c>
+      <c r="I33" t="s">
+        <v>124</v>
+      </c>
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" t="s">
+        <v>150</v>
+      </c>
+      <c r="H34" t="s">
+        <v>151</v>
+      </c>
+      <c r="I34" t="s">
+        <v>124</v>
+      </c>
+      <c r="J34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" t="s">
+        <v>61</v>
+      </c>
+      <c r="L34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" t="s">
+        <v>155</v>
+      </c>
+      <c r="F35" t="s">
+        <v>156</v>
+      </c>
+      <c r="G35" t="s">
+        <v>150</v>
+      </c>
+      <c r="H35" t="s">
+        <v>151</v>
+      </c>
+      <c r="I35" t="s">
+        <v>124</v>
+      </c>
+      <c r="J35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" t="s">
+        <v>159</v>
+      </c>
+      <c r="H36" t="s">
+        <v>160</v>
+      </c>
+      <c r="I36" t="s">
+        <v>161</v>
+      </c>
+      <c r="J36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" t="s">
+        <v>39</v>
+      </c>
+      <c r="L36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" t="s">
+        <v>159</v>
+      </c>
+      <c r="H37" t="s">
+        <v>160</v>
+      </c>
+      <c r="I37" t="s">
+        <v>161</v>
+      </c>
+      <c r="J37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" t="s">
+        <v>61</v>
+      </c>
+      <c r="L37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" t="s">
+        <v>166</v>
+      </c>
+      <c r="F38" t="s">
+        <v>60</v>
+      </c>
+      <c r="G38" t="s">
+        <v>167</v>
+      </c>
+      <c r="H38" t="s">
+        <v>168</v>
+      </c>
+      <c r="I38" t="s">
+        <v>169</v>
+      </c>
+      <c r="J38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" t="s">
+        <v>39</v>
+      </c>
+      <c r="L38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" t="s">
+        <v>173</v>
+      </c>
+      <c r="H39" t="s">
+        <v>174</v>
+      </c>
+      <c r="I39" t="s">
+        <v>169</v>
+      </c>
+      <c r="J39" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" t="s">
+        <v>61</v>
+      </c>
+      <c r="L39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>171</v>
+      </c>
+      <c r="B40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" t="s">
+        <v>165</v>
+      </c>
+      <c r="E40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" t="s">
+        <v>173</v>
+      </c>
+      <c r="H40" t="s">
+        <v>174</v>
+      </c>
+      <c r="I40" t="s">
+        <v>169</v>
+      </c>
+      <c r="J40" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" t="s">
+        <v>31</v>
+      </c>
+      <c r="L40" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" t="s">
+        <v>178</v>
+      </c>
+      <c r="E41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" t="s">
+        <v>167</v>
+      </c>
+      <c r="H41" t="s">
+        <v>168</v>
+      </c>
+      <c r="I41" t="s">
+        <v>169</v>
+      </c>
+      <c r="J41" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" t="s">
+        <v>167</v>
+      </c>
+      <c r="H42" t="s">
+        <v>168</v>
+      </c>
+      <c r="I42" t="s">
+        <v>169</v>
+      </c>
+      <c r="J42" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" t="s">
+        <v>39</v>
+      </c>
+      <c r="L42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>182</v>
+      </c>
+      <c r="E43" t="s">
+        <v>166</v>
+      </c>
+      <c r="F43" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43" t="s">
+        <v>183</v>
+      </c>
+      <c r="H43" t="s">
+        <v>184</v>
+      </c>
+      <c r="I43" t="s">
+        <v>169</v>
+      </c>
+      <c r="J43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" t="s">
+        <v>31</v>
+      </c>
+      <c r="L43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" t="s">
+        <v>181</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>182</v>
+      </c>
+      <c r="E44" t="s">
+        <v>166</v>
+      </c>
+      <c r="F44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G44" t="s">
+        <v>183</v>
+      </c>
+      <c r="H44" t="s">
+        <v>184</v>
+      </c>
+      <c r="I44" t="s">
+        <v>169</v>
+      </c>
+      <c r="J44" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" t="s">
+        <v>61</v>
+      </c>
+      <c r="L44" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>186</v>
+      </c>
+      <c r="B45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H45" t="s">
+        <v>189</v>
+      </c>
+      <c r="I45" t="s">
+        <v>169</v>
+      </c>
+      <c r="J45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" t="s">
+        <v>31</v>
+      </c>
+      <c r="L45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" t="s">
+        <v>193</v>
+      </c>
+      <c r="H46" t="s">
+        <v>194</v>
+      </c>
+      <c r="I46" t="s">
+        <v>169</v>
+      </c>
+      <c r="J46" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" t="s">
+        <v>39</v>
+      </c>
+      <c r="L46" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>196</v>
+      </c>
+      <c r="B47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" t="s">
+        <v>198</v>
+      </c>
+      <c r="F47" t="s">
+        <v>199</v>
+      </c>
+      <c r="G47" t="s">
+        <v>173</v>
+      </c>
+      <c r="H47" t="s">
+        <v>174</v>
+      </c>
+      <c r="I47" t="s">
+        <v>169</v>
+      </c>
+      <c r="J47" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>196</v>
+      </c>
+      <c r="B48" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" t="s">
+        <v>198</v>
+      </c>
+      <c r="F48" t="s">
+        <v>199</v>
+      </c>
+      <c r="G48" t="s">
+        <v>173</v>
+      </c>
+      <c r="H48" t="s">
+        <v>174</v>
+      </c>
+      <c r="I48" t="s">
+        <v>169</v>
+      </c>
+      <c r="J48" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>200</v>
+      </c>
+      <c r="B49" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49" t="s">
+        <v>202</v>
+      </c>
+      <c r="H49" t="s">
+        <v>203</v>
+      </c>
+      <c r="I49" t="s">
+        <v>169</v>
+      </c>
+      <c r="J49" t="s">
+        <v>21</v>
+      </c>
+      <c r="K49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>204</v>
+      </c>
+      <c r="B50" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" t="s">
+        <v>206</v>
+      </c>
+      <c r="E50" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" t="s">
+        <v>207</v>
+      </c>
+      <c r="H50" t="s">
+        <v>208</v>
+      </c>
+      <c r="I50" t="s">
+        <v>209</v>
+      </c>
+      <c r="J50" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" t="s">
+        <v>22</v>
+      </c>
+      <c r="L50" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>211</v>
+      </c>
+      <c r="B51" t="s">
+        <v>212</v>
+      </c>
+      <c r="C51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" t="s">
+        <v>213</v>
+      </c>
+      <c r="E51" t="s">
+        <v>134</v>
+      </c>
+      <c r="F51" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" t="s">
+        <v>214</v>
+      </c>
+      <c r="H51" t="s">
+        <v>215</v>
+      </c>
+      <c r="I51" t="s">
+        <v>209</v>
+      </c>
+      <c r="J51" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" t="s">
+        <v>39</v>
+      </c>
+      <c r="L51" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>217</v>
+      </c>
+      <c r="B52" t="s">
+        <v>218</v>
+      </c>
+      <c r="C52" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" t="s">
+        <v>206</v>
+      </c>
+      <c r="E52" t="s">
+        <v>140</v>
+      </c>
+      <c r="F52" t="s">
+        <v>89</v>
+      </c>
+      <c r="G52" t="s">
+        <v>219</v>
+      </c>
+      <c r="H52" t="s">
+        <v>220</v>
+      </c>
+      <c r="I52" t="s">
+        <v>209</v>
+      </c>
+      <c r="J52" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L52" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>217</v>
+      </c>
+      <c r="B53" t="s">
+        <v>218</v>
+      </c>
+      <c r="C53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" t="s">
+        <v>206</v>
+      </c>
+      <c r="E53" t="s">
+        <v>140</v>
+      </c>
+      <c r="F53" t="s">
+        <v>89</v>
+      </c>
+      <c r="G53" t="s">
+        <v>219</v>
+      </c>
+      <c r="H53" t="s">
+        <v>220</v>
+      </c>
+      <c r="I53" t="s">
+        <v>209</v>
+      </c>
+      <c r="J53" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" t="s">
+        <v>31</v>
+      </c>
+      <c r="L53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>222</v>
+      </c>
+      <c r="B54" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
+        <v>89</v>
+      </c>
+      <c r="G54" t="s">
+        <v>224</v>
+      </c>
+      <c r="H54" t="s">
+        <v>225</v>
+      </c>
+      <c r="I54" t="s">
+        <v>209</v>
+      </c>
+      <c r="J54" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>222</v>
+      </c>
+      <c r="B55" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55" t="s">
+        <v>224</v>
+      </c>
+      <c r="H55" t="s">
+        <v>225</v>
+      </c>
+      <c r="I55" t="s">
+        <v>209</v>
+      </c>
+      <c r="J55" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55" t="s">
+        <v>39</v>
+      </c>
+      <c r="L55" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>227</v>
+      </c>
+      <c r="B56" t="s">
+        <v>228</v>
+      </c>
+      <c r="C56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" t="s">
+        <v>229</v>
+      </c>
+      <c r="E56" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" t="s">
+        <v>46</v>
+      </c>
+      <c r="G56" t="s">
+        <v>219</v>
+      </c>
+      <c r="H56" t="s">
+        <v>220</v>
+      </c>
+      <c r="I56" t="s">
+        <v>209</v>
+      </c>
+      <c r="J56" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56" t="s">
+        <v>22</v>
+      </c>
+      <c r="L56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>231</v>
+      </c>
+      <c r="B57" t="s">
+        <v>232</v>
+      </c>
+      <c r="C57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" t="s">
+        <v>233</v>
+      </c>
+      <c r="E57" t="s">
+        <v>54</v>
+      </c>
+      <c r="F57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" t="s">
+        <v>219</v>
+      </c>
+      <c r="H57" t="s">
+        <v>220</v>
+      </c>
+      <c r="I57" t="s">
+        <v>209</v>
+      </c>
+      <c r="J57" t="s">
+        <v>21</v>
+      </c>
+      <c r="K57" t="s">
+        <v>31</v>
+      </c>
+      <c r="L57" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>235</v>
+      </c>
+      <c r="B58" t="s">
+        <v>236</v>
+      </c>
+      <c r="C58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" t="s">
+        <v>237</v>
+      </c>
+      <c r="E58" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58" t="s">
+        <v>141</v>
+      </c>
+      <c r="G58" t="s">
+        <v>238</v>
+      </c>
+      <c r="H58" t="s">
+        <v>239</v>
+      </c>
+      <c r="I58" t="s">
+        <v>209</v>
+      </c>
+      <c r="J58" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58" t="s">
+        <v>22</v>
+      </c>
+      <c r="L58" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>235</v>
+      </c>
+      <c r="B59" t="s">
+        <v>236</v>
+      </c>
+      <c r="C59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" t="s">
+        <v>237</v>
+      </c>
+      <c r="E59" t="s">
+        <v>54</v>
+      </c>
+      <c r="F59" t="s">
+        <v>141</v>
+      </c>
+      <c r="G59" t="s">
+        <v>238</v>
+      </c>
+      <c r="H59" t="s">
+        <v>239</v>
+      </c>
+      <c r="I59" t="s">
+        <v>209</v>
+      </c>
+      <c r="J59" t="s">
+        <v>21</v>
+      </c>
+      <c r="K59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L59" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>241</v>
+      </c>
+      <c r="B60" t="s">
+        <v>242</v>
+      </c>
+      <c r="C60" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" t="s">
+        <v>165</v>
+      </c>
+      <c r="E60" t="s">
+        <v>54</v>
+      </c>
+      <c r="F60" t="s">
+        <v>89</v>
+      </c>
+      <c r="G60" t="s">
+        <v>214</v>
+      </c>
+      <c r="H60" t="s">
+        <v>215</v>
+      </c>
+      <c r="I60" t="s">
+        <v>209</v>
+      </c>
+      <c r="J60" t="s">
+        <v>21</v>
+      </c>
+      <c r="K60" t="s">
+        <v>39</v>
+      </c>
+      <c r="L60" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>244</v>
+      </c>
+      <c r="B61" t="s">
+        <v>245</v>
+      </c>
+      <c r="C61" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" t="s">
+        <v>233</v>
+      </c>
+      <c r="E61" t="s">
+        <v>37</v>
+      </c>
+      <c r="F61" t="s">
+        <v>46</v>
+      </c>
+      <c r="G61" t="s">
+        <v>246</v>
+      </c>
+      <c r="H61" t="s">
+        <v>247</v>
+      </c>
+      <c r="I61" t="s">
+        <v>209</v>
+      </c>
+      <c r="J61" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61" t="s">
+        <v>61</v>
+      </c>
+      <c r="L61" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>244</v>
+      </c>
+      <c r="B62" t="s">
+        <v>245</v>
+      </c>
+      <c r="C62" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" t="s">
+        <v>233</v>
+      </c>
+      <c r="E62" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" t="s">
+        <v>46</v>
+      </c>
+      <c r="G62" t="s">
+        <v>246</v>
+      </c>
+      <c r="H62" t="s">
+        <v>247</v>
+      </c>
+      <c r="I62" t="s">
+        <v>209</v>
+      </c>
+      <c r="J62" t="s">
+        <v>21</v>
+      </c>
+      <c r="K62" t="s">
+        <v>31</v>
+      </c>
+      <c r="L62" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
+        <v>249</v>
+      </c>
+      <c r="B63" t="s">
+        <v>250</v>
+      </c>
+      <c r="C63" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" t="s">
+        <v>38</v>
+      </c>
+      <c r="G63" t="s">
+        <v>251</v>
+      </c>
+      <c r="H63" t="s">
+        <v>252</v>
+      </c>
+      <c r="I63" t="s">
+        <v>209</v>
+      </c>
+      <c r="J63" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63" t="s">
+        <v>31</v>
+      </c>
+      <c r="L63" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
+        <v>249</v>
+      </c>
+      <c r="B64" t="s">
+        <v>250</v>
+      </c>
+      <c r="C64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" t="s">
+        <v>37</v>
+      </c>
+      <c r="F64" t="s">
+        <v>38</v>
+      </c>
+      <c r="G64" t="s">
+        <v>251</v>
+      </c>
+      <c r="H64" t="s">
+        <v>252</v>
+      </c>
+      <c r="I64" t="s">
+        <v>209</v>
+      </c>
+      <c r="J64" t="s">
+        <v>21</v>
+      </c>
+      <c r="K64" t="s">
+        <v>61</v>
+      </c>
+      <c r="L64" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" t="s">
+        <v>254</v>
+      </c>
+      <c r="B65" t="s">
+        <v>255</v>
+      </c>
+      <c r="C65" t="s">
+        <v>100</v>
+      </c>
+      <c r="D65" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F65" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" t="s">
+        <v>246</v>
+      </c>
+      <c r="H65" t="s">
+        <v>247</v>
+      </c>
+      <c r="I65" t="s">
+        <v>209</v>
+      </c>
+      <c r="J65" t="s">
+        <v>21</v>
+      </c>
+      <c r="K65" t="s">
+        <v>61</v>
+      </c>
+      <c r="L65" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" t="s">
+        <v>257</v>
+      </c>
+      <c r="B66" t="s">
+        <v>258</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E66" t="s">
+        <v>54</v>
+      </c>
+      <c r="F66" t="s">
+        <v>55</v>
+      </c>
+      <c r="G66" t="s">
+        <v>259</v>
+      </c>
+      <c r="H66" t="s">
+        <v>260</v>
+      </c>
+      <c r="I66" t="s">
+        <v>209</v>
+      </c>
+      <c r="J66" t="s">
+        <v>21</v>
+      </c>
+      <c r="K66" t="s">
+        <v>39</v>
+      </c>
+      <c r="L66" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" t="s">
+        <v>262</v>
+      </c>
+      <c r="B67" t="s">
+        <v>263</v>
+      </c>
+      <c r="C67" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" t="s">
+        <v>178</v>
+      </c>
+      <c r="E67" t="s">
+        <v>102</v>
+      </c>
+      <c r="F67" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" t="s">
+        <v>251</v>
+      </c>
+      <c r="H67" t="s">
+        <v>252</v>
+      </c>
+      <c r="I67" t="s">
+        <v>209</v>
+      </c>
+      <c r="J67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K67" t="s">
+        <v>61</v>
+      </c>
+      <c r="L67" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" t="s">
+        <v>265</v>
+      </c>
+      <c r="B68" t="s">
+        <v>266</v>
+      </c>
+      <c r="C68" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" t="s">
+        <v>65</v>
+      </c>
+      <c r="E68" t="s">
+        <v>66</v>
+      </c>
+      <c r="F68" t="s">
+        <v>267</v>
+      </c>
+      <c r="G68" t="s">
+        <v>268</v>
+      </c>
+      <c r="H68" t="s">
+        <v>269</v>
+      </c>
+      <c r="I68" t="s">
+        <v>209</v>
+      </c>
+      <c r="J68" t="s">
+        <v>21</v>
+      </c>
+      <c r="K68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" t="s">
+        <v>265</v>
+      </c>
+      <c r="B69" t="s">
+        <v>266</v>
+      </c>
+      <c r="C69" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" t="s">
+        <v>65</v>
+      </c>
+      <c r="E69" t="s">
+        <v>66</v>
+      </c>
+      <c r="F69" t="s">
+        <v>267</v>
+      </c>
+      <c r="G69" t="s">
+        <v>268</v>
+      </c>
+      <c r="H69" t="s">
+        <v>269</v>
+      </c>
+      <c r="I69" t="s">
+        <v>209</v>
+      </c>
+      <c r="J69" t="s">
+        <v>21</v>
+      </c>
+      <c r="K69" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" t="s">
+        <v>270</v>
+      </c>
+      <c r="B70" t="s">
+        <v>271</v>
+      </c>
+      <c r="C70" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" t="s">
+        <v>272</v>
+      </c>
+      <c r="E70" t="s">
+        <v>102</v>
+      </c>
+      <c r="F70" t="s">
+        <v>76</v>
+      </c>
+      <c r="G70" t="s">
+        <v>273</v>
+      </c>
+      <c r="H70" t="s">
+        <v>274</v>
+      </c>
+      <c r="I70" t="s">
+        <v>275</v>
+      </c>
+      <c r="J70" t="s">
+        <v>21</v>
+      </c>
+      <c r="K70" t="s">
+        <v>61</v>
+      </c>
+      <c r="L70" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" t="s">
+        <v>270</v>
+      </c>
+      <c r="B71" t="s">
+        <v>271</v>
+      </c>
+      <c r="C71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" t="s">
+        <v>272</v>
+      </c>
+      <c r="E71" t="s">
+        <v>102</v>
+      </c>
+      <c r="F71" t="s">
+        <v>76</v>
+      </c>
+      <c r="G71" t="s">
+        <v>273</v>
+      </c>
+      <c r="H71" t="s">
+        <v>274</v>
+      </c>
+      <c r="I71" t="s">
+        <v>275</v>
+      </c>
+      <c r="J71" t="s">
+        <v>21</v>
+      </c>
+      <c r="K71" t="s">
+        <v>22</v>
+      </c>
+      <c r="L71" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" t="s">
+        <v>277</v>
+      </c>
+      <c r="B72" t="s">
+        <v>278</v>
+      </c>
+      <c r="C72" t="s">
+        <v>35</v>
+      </c>
+      <c r="D72" t="s">
+        <v>279</v>
+      </c>
+      <c r="E72" t="s">
+        <v>27</v>
+      </c>
+      <c r="F72" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" t="s">
+        <v>273</v>
+      </c>
+      <c r="H72" t="s">
+        <v>274</v>
+      </c>
+      <c r="I72" t="s">
+        <v>275</v>
+      </c>
+      <c r="J72" t="s">
+        <v>21</v>
+      </c>
+      <c r="K72" t="s">
+        <v>61</v>
+      </c>
+      <c r="L72" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" t="s">
+        <v>281</v>
+      </c>
+      <c r="B73" t="s">
+        <v>282</v>
+      </c>
+      <c r="C73" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" t="s">
+        <v>65</v>
+      </c>
+      <c r="E73" t="s">
+        <v>166</v>
+      </c>
+      <c r="F73" t="s">
+        <v>141</v>
+      </c>
+      <c r="G73" t="s">
+        <v>283</v>
+      </c>
+      <c r="H73" t="s">
+        <v>284</v>
+      </c>
+      <c r="I73" t="s">
+        <v>275</v>
+      </c>
+      <c r="J73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K73" t="s">
+        <v>22</v>
+      </c>
+      <c r="L73" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" t="s">
+        <v>286</v>
+      </c>
+      <c r="B74" t="s">
+        <v>287</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>288</v>
+      </c>
+      <c r="E74" t="s">
+        <v>75</v>
+      </c>
+      <c r="F74" t="s">
+        <v>55</v>
+      </c>
+      <c r="G74" t="s">
+        <v>289</v>
+      </c>
+      <c r="H74" t="s">
+        <v>290</v>
+      </c>
+      <c r="I74" t="s">
+        <v>275</v>
+      </c>
+      <c r="J74" t="s">
+        <v>21</v>
+      </c>
+      <c r="K74" t="s">
+        <v>22</v>
+      </c>
+      <c r="L74" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" t="s">
+        <v>286</v>
+      </c>
+      <c r="B75" t="s">
+        <v>287</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>288</v>
+      </c>
+      <c r="E75" t="s">
+        <v>75</v>
+      </c>
+      <c r="F75" t="s">
+        <v>55</v>
+      </c>
+      <c r="G75" t="s">
+        <v>289</v>
+      </c>
+      <c r="H75" t="s">
+        <v>290</v>
+      </c>
+      <c r="I75" t="s">
+        <v>275</v>
+      </c>
+      <c r="J75" t="s">
+        <v>21</v>
+      </c>
+      <c r="K75" t="s">
+        <v>31</v>
+      </c>
+      <c r="L75" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" t="s">
+        <v>292</v>
+      </c>
+      <c r="B76" t="s">
+        <v>293</v>
+      </c>
+      <c r="C76" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" t="s">
+        <v>65</v>
+      </c>
+      <c r="E76" t="s">
+        <v>294</v>
+      </c>
+      <c r="F76" t="s">
+        <v>295</v>
+      </c>
+      <c r="G76" t="s">
+        <v>296</v>
+      </c>
+      <c r="H76" t="s">
+        <v>297</v>
+      </c>
+      <c r="I76" t="s">
+        <v>275</v>
+      </c>
+      <c r="J76" t="s">
+        <v>21</v>
+      </c>
+      <c r="K76" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" t="s">
+        <v>292</v>
+      </c>
+      <c r="B77" t="s">
+        <v>293</v>
+      </c>
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" t="s">
+        <v>65</v>
+      </c>
+      <c r="E77" t="s">
+        <v>294</v>
+      </c>
+      <c r="F77" t="s">
+        <v>295</v>
+      </c>
+      <c r="G77" t="s">
+        <v>296</v>
+      </c>
+      <c r="H77" t="s">
+        <v>297</v>
+      </c>
+      <c r="I77" t="s">
+        <v>275</v>
+      </c>
+      <c r="J77" t="s">
+        <v>21</v>
+      </c>
+      <c r="K77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" t="s">
+        <v>298</v>
+      </c>
+      <c r="B78" t="s">
+        <v>299</v>
+      </c>
+      <c r="C78" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" t="s">
+        <v>300</v>
+      </c>
+      <c r="E78" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="B3" t="s">
+      <c r="F78" t="s">
+        <v>28</v>
+      </c>
+      <c r="G78" t="s">
+        <v>301</v>
+      </c>
+      <c r="H78" t="s">
+        <v>302</v>
+      </c>
+      <c r="I78" t="s">
+        <v>303</v>
+      </c>
+      <c r="J78" t="s">
+        <v>21</v>
+      </c>
+      <c r="K78" t="s">
+        <v>61</v>
+      </c>
+      <c r="L78" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" t="s">
+        <v>298</v>
+      </c>
+      <c r="B79" t="s">
+        <v>299</v>
+      </c>
+      <c r="C79" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" t="s">
+        <v>300</v>
+      </c>
+      <c r="E79" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" t="s">
+        <v>28</v>
+      </c>
+      <c r="G79" t="s">
+        <v>301</v>
+      </c>
+      <c r="H79" t="s">
+        <v>302</v>
+      </c>
+      <c r="I79" t="s">
+        <v>303</v>
+      </c>
+      <c r="J79" t="s">
+        <v>21</v>
+      </c>
+      <c r="K79" t="s">
+        <v>31</v>
+      </c>
+      <c r="L79" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" t="s">
+        <v>305</v>
+      </c>
+      <c r="B80" t="s">
+        <v>306</v>
+      </c>
+      <c r="C80" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80" t="s">
+        <v>114</v>
+      </c>
+      <c r="E80" t="s">
+        <v>75</v>
+      </c>
+      <c r="F80" t="s">
+        <v>60</v>
+      </c>
+      <c r="G80" t="s">
+        <v>307</v>
+      </c>
+      <c r="H80" t="s">
+        <v>308</v>
+      </c>
+      <c r="I80" t="s">
+        <v>309</v>
+      </c>
+      <c r="J80" t="s">
+        <v>21</v>
+      </c>
+      <c r="K80" t="s">
+        <v>39</v>
+      </c>
+      <c r="L80" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" t="s">
+        <v>311</v>
+      </c>
+      <c r="B81" t="s">
+        <v>312</v>
+      </c>
+      <c r="C81" t="s">
+        <v>100</v>
+      </c>
+      <c r="D81" t="s">
+        <v>165</v>
+      </c>
+      <c r="E81" t="s">
+        <v>45</v>
+      </c>
+      <c r="F81" t="s">
+        <v>55</v>
+      </c>
+      <c r="G81" t="s">
+        <v>313</v>
+      </c>
+      <c r="H81" t="s">
+        <v>314</v>
+      </c>
+      <c r="I81" t="s">
+        <v>315</v>
+      </c>
+      <c r="J81" t="s">
+        <v>21</v>
+      </c>
+      <c r="K81" t="s">
+        <v>39</v>
+      </c>
+      <c r="L81" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" t="s">
+        <v>311</v>
+      </c>
+      <c r="B82" t="s">
+        <v>312</v>
+      </c>
+      <c r="C82" t="s">
+        <v>100</v>
+      </c>
+      <c r="D82" t="s">
+        <v>165</v>
+      </c>
+      <c r="E82" t="s">
+        <v>45</v>
+      </c>
+      <c r="F82" t="s">
+        <v>55</v>
+      </c>
+      <c r="G82" t="s">
+        <v>313</v>
+      </c>
+      <c r="H82" t="s">
+        <v>314</v>
+      </c>
+      <c r="I82" t="s">
+        <v>315</v>
+      </c>
+      <c r="J82" t="s">
+        <v>21</v>
+      </c>
+      <c r="K82" t="s">
+        <v>31</v>
+      </c>
+      <c r="L82" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" t="s">
+        <v>317</v>
+      </c>
+      <c r="B83" t="s">
+        <v>318</v>
+      </c>
+      <c r="C83" t="s">
+        <v>52</v>
+      </c>
+      <c r="D83" t="s">
+        <v>272</v>
+      </c>
+      <c r="E83" t="s">
+        <v>102</v>
+      </c>
+      <c r="F83" t="s">
+        <v>89</v>
+      </c>
+      <c r="G83" t="s">
+        <v>319</v>
+      </c>
+      <c r="H83" t="s">
+        <v>320</v>
+      </c>
+      <c r="I83" t="s">
+        <v>315</v>
+      </c>
+      <c r="J83" t="s">
+        <v>21</v>
+      </c>
+      <c r="K83" t="s">
+        <v>39</v>
+      </c>
+      <c r="L83" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" t="s">
+        <v>322</v>
+      </c>
+      <c r="B84" t="s">
+        <v>323</v>
+      </c>
+      <c r="C84" t="s">
+        <v>100</v>
+      </c>
+      <c r="D84" t="s">
+        <v>101</v>
+      </c>
+      <c r="E84" t="s">
+        <v>37</v>
+      </c>
+      <c r="F84" t="s">
+        <v>89</v>
+      </c>
+      <c r="G84" t="s">
+        <v>324</v>
+      </c>
+      <c r="H84" t="s">
+        <v>325</v>
+      </c>
+      <c r="I84" t="s">
+        <v>315</v>
+      </c>
+      <c r="J84" t="s">
+        <v>21</v>
+      </c>
+      <c r="K84" t="s">
+        <v>61</v>
+      </c>
+      <c r="L84" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" t="s">
+        <v>322</v>
+      </c>
+      <c r="B85" t="s">
+        <v>323</v>
+      </c>
+      <c r="C85" t="s">
+        <v>100</v>
+      </c>
+      <c r="D85" t="s">
+        <v>101</v>
+      </c>
+      <c r="E85" t="s">
+        <v>37</v>
+      </c>
+      <c r="F85" t="s">
+        <v>89</v>
+      </c>
+      <c r="G85" t="s">
+        <v>324</v>
+      </c>
+      <c r="H85" t="s">
+        <v>325</v>
+      </c>
+      <c r="I85" t="s">
+        <v>315</v>
+      </c>
+      <c r="J85" t="s">
+        <v>21</v>
+      </c>
+      <c r="K85" t="s">
+        <v>31</v>
+      </c>
+      <c r="L85" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" t="s">
+        <v>327</v>
+      </c>
+      <c r="B86" t="s">
+        <v>328</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>329</v>
+      </c>
+      <c r="E86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F86" t="s">
+        <v>46</v>
+      </c>
+      <c r="G86" t="s">
+        <v>319</v>
+      </c>
+      <c r="H86" t="s">
+        <v>320</v>
+      </c>
+      <c r="I86" t="s">
+        <v>315</v>
+      </c>
+      <c r="J86" t="s">
+        <v>21</v>
+      </c>
+      <c r="K86" t="s">
+        <v>61</v>
+      </c>
+      <c r="L86" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" t="s">
+        <v>331</v>
+      </c>
+      <c r="B87" t="s">
+        <v>332</v>
+      </c>
+      <c r="C87" t="s">
+        <v>100</v>
+      </c>
+      <c r="D87" t="s">
+        <v>206</v>
+      </c>
+      <c r="E87" t="s">
+        <v>54</v>
+      </c>
+      <c r="F87" t="s">
+        <v>60</v>
+      </c>
+      <c r="G87" t="s">
+        <v>324</v>
+      </c>
+      <c r="H87" t="s">
+        <v>325</v>
+      </c>
+      <c r="I87" t="s">
+        <v>315</v>
+      </c>
+      <c r="J87" t="s">
+        <v>21</v>
+      </c>
+      <c r="K87" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="L87" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" t="s">
+        <v>331</v>
+      </c>
+      <c r="B88" t="s">
+        <v>332</v>
+      </c>
+      <c r="C88" t="s">
+        <v>100</v>
+      </c>
+      <c r="D88" t="s">
+        <v>206</v>
+      </c>
+      <c r="E88" t="s">
+        <v>54</v>
+      </c>
+      <c r="F88" t="s">
+        <v>60</v>
+      </c>
+      <c r="G88" t="s">
+        <v>324</v>
+      </c>
+      <c r="H88" t="s">
+        <v>325</v>
+      </c>
+      <c r="I88" t="s">
+        <v>315</v>
+      </c>
+      <c r="J88" t="s">
+        <v>21</v>
+      </c>
+      <c r="K88" t="s">
+        <v>39</v>
+      </c>
+      <c r="L88" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" t="s">
+        <v>334</v>
+      </c>
+      <c r="B89" t="s">
+        <v>335</v>
+      </c>
+      <c r="C89" t="s">
+        <v>43</v>
+      </c>
+      <c r="D89" t="s">
+        <v>44</v>
+      </c>
+      <c r="E89" t="s">
+        <v>37</v>
+      </c>
+      <c r="F89" t="s">
+        <v>89</v>
+      </c>
+      <c r="G89" t="s">
+        <v>324</v>
+      </c>
+      <c r="H89" t="s">
+        <v>325</v>
+      </c>
+      <c r="I89" t="s">
+        <v>315</v>
+      </c>
+      <c r="J89" t="s">
+        <v>21</v>
+      </c>
+      <c r="K89" t="s">
+        <v>39</v>
+      </c>
+      <c r="L89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" t="s">
+        <v>334</v>
+      </c>
+      <c r="B90" t="s">
+        <v>335</v>
+      </c>
+      <c r="C90" t="s">
+        <v>43</v>
+      </c>
+      <c r="D90" t="s">
+        <v>44</v>
+      </c>
+      <c r="E90" t="s">
+        <v>37</v>
+      </c>
+      <c r="F90" t="s">
+        <v>89</v>
+      </c>
+      <c r="G90" t="s">
+        <v>324</v>
+      </c>
+      <c r="H90" t="s">
+        <v>325</v>
+      </c>
+      <c r="I90" t="s">
+        <v>315</v>
+      </c>
+      <c r="J90" t="s">
+        <v>21</v>
+      </c>
+      <c r="K90" t="s">
+        <v>22</v>
+      </c>
+      <c r="L90" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" t="s">
+        <v>336</v>
+      </c>
+      <c r="B91" t="s">
+        <v>337</v>
+      </c>
+      <c r="C91" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
+      <c r="D91" t="s">
+        <v>26</v>
+      </c>
+      <c r="E91" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" t="s">
+        <v>115</v>
+      </c>
+      <c r="G91" t="s">
+        <v>319</v>
+      </c>
+      <c r="H91" t="s">
+        <v>320</v>
+      </c>
+      <c r="I91" t="s">
+        <v>315</v>
+      </c>
+      <c r="J91" t="s">
+        <v>21</v>
+      </c>
+      <c r="K91" t="s">
+        <v>39</v>
+      </c>
+      <c r="L91" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" t="s">
+        <v>339</v>
+      </c>
+      <c r="B92" t="s">
+        <v>340</v>
+      </c>
+      <c r="C92" t="s">
+        <v>35</v>
+      </c>
+      <c r="D92" t="s">
+        <v>65</v>
+      </c>
+      <c r="E92" t="s">
+        <v>294</v>
+      </c>
+      <c r="F92" t="s">
+        <v>341</v>
+      </c>
+      <c r="G92" t="s">
+        <v>342</v>
+      </c>
+      <c r="H92" t="s">
+        <v>343</v>
+      </c>
+      <c r="I92" t="s">
+        <v>315</v>
+      </c>
+      <c r="J92" t="s">
+        <v>21</v>
+      </c>
+      <c r="K92" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -728,7 +5040,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>344</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -769,10 +5081,10 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>368</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -793,10 +5105,10 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>375</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>376</v>
       </c>
       <c r="K3" t="s">
         <v>9</v>
@@ -810,59 +5122,59 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>346</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>369</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>369</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>372</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>372</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>369</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>369</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>369</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>369</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>369</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>369</v>
       </c>
       <c r="L4" t="s">
-        <v>50</v>
+        <v>369</v>
       </c>
       <c r="M4" t="s">
-        <v>50</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>347</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>373</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>348</v>
       </c>
       <c r="B6">
         <v>255</v>
@@ -903,228 +5215,228 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>349</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>371</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>371</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>371</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>371</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>371</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>371</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>371</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>371</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="L7" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="M7" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>351</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="L9" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="M9" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>352</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>371</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>371</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>371</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>371</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>371</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>371</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>371</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>371</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>371</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>371</v>
       </c>
       <c r="L10" t="s">
-        <v>52</v>
+        <v>371</v>
       </c>
       <c r="M10" t="s">
-        <v>52</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>353</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>354</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="L12" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="M12" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>359</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>360</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>361</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>362</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -1132,42 +5444,42 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>363</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>364</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>365</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>366</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>367</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
